--- a/medicine/Enfance/Christine_Féret-Fleury/Christine_Féret-Fleury.xlsx
+++ b/medicine/Enfance/Christine_Féret-Fleury/Christine_Féret-Fleury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christine_F%C3%A9ret-Fleury</t>
+          <t>Christine_Féret-Fleury</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Féret-Fleury, née en 1961[1], est une éditrice et auteure française, notamment de livres pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Féret-Fleury, née en 1961, est une éditrice et auteure française, notamment de livres pour la jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christine_F%C3%A9ret-Fleury</t>
+          <t>Christine_Féret-Fleury</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de lettres et quelques années de recherche sur les rapports texte-musique dans l’opéra, Christine Féret-Fleury a longtemps été éditrice chez Gallimard Jeunesse, animant notamment les collections Page Blanche, Folio Junior édition spéciale, Folio Junior en poésie et Les Thématiques. En 1996, elle a publié son premier livre pour la jeunesse, Le Petit Tamour (Père Castor/Flammarion), suivi en 1999 par un roman « adulte », Les Vagues sont douces comme des tigres, couronné par le prix Antigone, puis par plus de quatre-vingt-dix autres titres. Depuis 2001, elle se consacre principalement à l’écriture et anime des ateliers où se rencontrent des passionnés de tous âges. Elle vit à Paris. De notoriété internationale, Christine Féret-Fleury a participé au premier salon littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse[2],[3], organisé à Seattle par l’association Made in France[4] en 2021.  
-Plusieurs titres ont été écrits en collaboration avec Genevière Lecourtier et certains avec sa fille Madeleine Féret-Fleury[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de lettres et quelques années de recherche sur les rapports texte-musique dans l’opéra, Christine Féret-Fleury a longtemps été éditrice chez Gallimard Jeunesse, animant notamment les collections Page Blanche, Folio Junior édition spéciale, Folio Junior en poésie et Les Thématiques. En 1996, elle a publié son premier livre pour la jeunesse, Le Petit Tamour (Père Castor/Flammarion), suivi en 1999 par un roman « adulte », Les Vagues sont douces comme des tigres, couronné par le prix Antigone, puis par plus de quatre-vingt-dix autres titres. Depuis 2001, elle se consacre principalement à l’écriture et anime des ateliers où se rencontrent des passionnés de tous âges. Elle vit à Paris. De notoriété internationale, Christine Féret-Fleury a participé au premier salon littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse organisé à Seattle par l’association Made in France en 2021.  
+Plusieurs titres ont été écrits en collaboration avec Genevière Lecourtier et certains avec sa fille Madeleine Féret-Fleury.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christine_F%C3%A9ret-Fleury</t>
+          <t>Christine_Féret-Fleury</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les vagues sont douces comme des tigres, 1999, Arléa, prix Antigone.
 Dans le miroir, 2000, Frontières/Gallimard.
